--- a/Documentation/Pack Voltage Rev 2 Full BOM.xlsx
+++ b/Documentation/Pack Voltage Rev 2 Full BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b431e84c343b5b9e/Documents/GitHub/PackVoltage_Hardware/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{707D7180-A1E0-49B5-8479-7E69863CD7D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D961AF94-FA71-4C3F-8B9D-BCA75CE3AE68}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{707D7180-A1E0-49B5-8479-7E69863CD7D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F38504B1-4E10-4923-9C87-F94D68728006}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3312" yWindow="2496" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PackVoltage_2021_Rev1" sheetId="1" r:id="rId1"/>
@@ -129,9 +129,6 @@
     <t>0.1uF</t>
   </si>
   <si>
-    <t>0.1 uF Capacitor</t>
-  </si>
-  <si>
     <t>1276-1005-1-ND</t>
   </si>
   <si>
@@ -592,6 +589,9 @@
   </si>
   <si>
     <t>BUK7M8R5-40HX</t>
+  </si>
+  <si>
+    <t>CAP CER 0.1UF 16V X7R 0603</t>
   </si>
 </sst>
 </file>
@@ -1493,28 +1493,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="144.7265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="144.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J1" t="s">
         <v>6</v>
@@ -1555,7 +1555,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3</v>
       </c>
@@ -1570,10 +1570,10 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H2" s="4">
         <v>705430039</v>
@@ -1593,10 +1593,10 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>4</v>
       </c>
@@ -1611,10 +1611,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H3" s="4">
         <v>705430114</v>
@@ -1634,10 +1634,10 @@
         <v>1.84</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>5</v>
       </c>
@@ -1652,13 +1652,13 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="1" t="s">
@@ -1675,10 +1675,10 @@
         <v>3.42</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>6</v>
       </c>
@@ -1693,13 +1693,13 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="1" t="s">
@@ -1716,10 +1716,10 @@
         <v>0.72</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>7</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>26</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="1" t="s">
@@ -1760,7 +1760,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>8</v>
       </c>
@@ -1775,13 +1775,13 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="H7" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="1" t="s">
@@ -1798,31 +1798,31 @@
         <v>1</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="1" t="s">
@@ -1839,31 +1839,31 @@
         <v>30</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="1" t="s">
@@ -1880,35 +1880,35 @@
         <v>23.6</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K10" s="4">
         <v>10</v>
@@ -1922,31 +1922,31 @@
         <v>6.25</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="1" t="s">
@@ -1963,31 +1963,31 @@
         <v>52.5</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G12" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="1" t="s">
@@ -2004,31 +2004,31 @@
         <v>3.88</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="D13" s="4">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="1" t="s">
@@ -2045,31 +2045,31 @@
         <v>7.26</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="1" t="s">
@@ -2086,31 +2086,31 @@
         <v>1.24</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="1" t="s">
@@ -2127,31 +2127,31 @@
         <v>3.4</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="1" t="s">
@@ -2168,31 +2168,31 @@
         <v>0.46</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>18</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H17" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="1" t="s">
@@ -2209,33 +2209,33 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K18" s="4">
         <v>12</v>
@@ -2248,33 +2248,33 @@
         <v>4.4400000000000004</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>20</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K19" s="4">
         <v>1</v>
@@ -2287,33 +2287,33 @@
         <v>0.39</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>21</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K20" s="4">
         <v>12</v>
@@ -2326,26 +2326,26 @@
         <v>4.2</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K21" s="4">
         <v>24</v>
@@ -2358,31 +2358,31 @@
         <v>14.16</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D22" s="4">
         <v>20</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="1" t="s">
@@ -2399,31 +2399,31 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D23" s="4">
         <v>10</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="1" t="s">
@@ -2440,31 +2440,31 @@
         <v>0.88</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D24" s="4">
         <v>15</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="1" t="s">
@@ -2481,24 +2481,24 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
       <c r="C25" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G25" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H25" s="9" t="s">
         <v>136</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>137</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="1" t="s">
@@ -2515,15 +2515,15 @@
         <v>11.6</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>27</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>19</v>
@@ -2533,13 +2533,13 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="1" t="s">
@@ -2556,15 +2556,15 @@
         <v>0.1</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>28</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>19</v>
@@ -2574,13 +2574,13 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="1" t="s">
@@ -2597,15 +2597,15 @@
         <v>0.1</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>29</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>19</v>
@@ -2615,13 +2615,13 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H28" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="1" t="s">
@@ -2638,28 +2638,28 @@
         <v>0.17</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -2677,28 +2677,28 @@
         <v>4.3</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>31</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -2716,7 +2716,7 @@
         <v>4.3</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Pack Voltage Rev 2 Full BOM.xlsx
+++ b/Documentation/Pack Voltage Rev 2 Full BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b431e84c343b5b9e/Documents/GitHub/PackVoltage_Hardware/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{707D7180-A1E0-49B5-8479-7E69863CD7D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F38504B1-4E10-4923-9C87-F94D68728006}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{707D7180-A1E0-49B5-8479-7E69863CD7D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D961AF94-FA71-4C3F-8B9D-BCA75CE3AE68}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3312" yWindow="2496" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PackVoltage_2021_Rev1" sheetId="1" r:id="rId1"/>
@@ -129,6 +129,9 @@
     <t>0.1uF</t>
   </si>
   <si>
+    <t>0.1 uF Capacitor</t>
+  </si>
+  <si>
     <t>1276-1005-1-ND</t>
   </si>
   <si>
@@ -589,9 +592,6 @@
   </si>
   <si>
     <t>BUK7M8R5-40HX</t>
-  </si>
-  <si>
-    <t>CAP CER 0.1UF 16V X7R 0603</t>
   </si>
 </sst>
 </file>
@@ -1493,28 +1493,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="144.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="144.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J1" t="s">
         <v>6</v>
@@ -1555,7 +1555,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>3</v>
       </c>
@@ -1570,10 +1570,10 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H2" s="4">
         <v>705430039</v>
@@ -1593,10 +1593,10 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>4</v>
       </c>
@@ -1611,10 +1611,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H3" s="4">
         <v>705430114</v>
@@ -1634,10 +1634,10 @@
         <v>1.84</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>5</v>
       </c>
@@ -1652,13 +1652,13 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>138</v>
-      </c>
       <c r="H4" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="1" t="s">
@@ -1675,10 +1675,10 @@
         <v>3.42</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>6</v>
       </c>
@@ -1693,13 +1693,13 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="1" t="s">
@@ -1716,10 +1716,10 @@
         <v>0.72</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>7</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>26</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="1" t="s">
@@ -1760,7 +1760,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>8</v>
       </c>
@@ -1775,13 +1775,13 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="1" t="s">
-        <v>186</v>
+        <v>32</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="1" t="s">
@@ -1798,31 +1798,31 @@
         <v>1</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="1" t="s">
@@ -1839,31 +1839,31 @@
         <v>30</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="1" t="s">
@@ -1880,35 +1880,35 @@
         <v>23.6</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K10" s="4">
         <v>10</v>
@@ -1922,31 +1922,31 @@
         <v>6.25</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="H11" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="1" t="s">
@@ -1963,31 +1963,31 @@
         <v>52.5</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="1" t="s">
@@ -2004,31 +2004,31 @@
         <v>3.88</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D13" s="4">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="H13" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="1" t="s">
@@ -2045,31 +2045,31 @@
         <v>7.26</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="1" t="s">
@@ -2086,31 +2086,31 @@
         <v>1.24</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="H15" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="1" t="s">
@@ -2127,31 +2127,31 @@
         <v>3.4</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G16" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="1" t="s">
@@ -2168,31 +2168,31 @@
         <v>0.46</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>18</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="H17" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="1" t="s">
@@ -2209,33 +2209,33 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K18" s="4">
         <v>12</v>
@@ -2248,33 +2248,33 @@
         <v>4.4400000000000004</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>20</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K19" s="4">
         <v>1</v>
@@ -2287,33 +2287,33 @@
         <v>0.39</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>21</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K20" s="4">
         <v>12</v>
@@ -2326,26 +2326,26 @@
         <v>4.2</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B21" s="2"/>
       <c r="C21" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K21" s="4">
         <v>24</v>
@@ -2358,31 +2358,31 @@
         <v>14.16</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D22" s="4">
         <v>20</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="1" t="s">
@@ -2399,31 +2399,31 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D23" s="4">
         <v>10</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="1" t="s">
@@ -2440,31 +2440,31 @@
         <v>0.88</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D24" s="4">
         <v>15</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="1" t="s">
@@ -2481,24 +2481,24 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B25" s="2"/>
       <c r="C25" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="1" t="s">
@@ -2515,15 +2515,15 @@
         <v>11.6</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>27</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>19</v>
@@ -2533,13 +2533,13 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="H26" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="1" t="s">
@@ -2556,15 +2556,15 @@
         <v>0.1</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>28</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>19</v>
@@ -2574,13 +2574,13 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="1" t="s">
@@ -2597,15 +2597,15 @@
         <v>0.1</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>29</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>19</v>
@@ -2615,13 +2615,13 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="H28" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="1" t="s">
@@ -2638,28 +2638,28 @@
         <v>0.17</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -2677,28 +2677,28 @@
         <v>4.3</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>31</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -2716,7 +2716,7 @@
         <v>4.3</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
